--- a/DeliverooAgent/NoCode/INFO.xlsx
+++ b/DeliverooAgent/NoCode/INFO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucaz\Desktop\ASA\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucaz\Desktop\ASA\Github\DeliverooAgent\NoCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE8C93A-5751-4C45-ADC9-B1E919A7E8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E12EADF-3D77-4E81-A4E8-A95EBCD98494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{065E83BE-B1A0-4502-AE30-4FB66E0EBDE0}"/>
   </bookViews>
@@ -204,9 +204,6 @@
     <t>Test 4</t>
   </si>
   <si>
-    <t>Single agent performance</t>
-  </si>
-  <si>
     <t>10000ms</t>
   </si>
   <si>
@@ -265,6 +262,9 @@
   </si>
   <si>
     <t>Multi-agent performance</t>
+  </si>
+  <si>
+    <t>Single agent performance (300ms - 5 minutes)</t>
   </si>
 </sst>
 </file>
@@ -272,7 +272,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1003,30 +1003,24 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1045,21 +1039,27 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1970,10 +1970,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0D301A-73A6-4526-833A-44D4BEDE7EE1}">
-  <dimension ref="B1:K47"/>
+  <dimension ref="B1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,28 +1982,36 @@
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="27.5703125" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="B1" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="87"/>
-    </row>
-    <row r="2" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="82"/>
+    <row r="1" spans="2:19" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="B1" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="91"/>
+    </row>
+    <row r="2" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="80"/>
       <c r="C2" s="65" t="s">
         <v>42</v>
       </c>
@@ -2019,21 +2027,29 @@
       <c r="G2" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="76" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="83" t="s">
+      <c r="R2" s="92"/>
+      <c r="S2" s="93"/>
+    </row>
+    <row r="3" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="81" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="67" t="s">
@@ -2051,13 +2067,25 @@
       <c r="G3" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="79"/>
-    </row>
-    <row r="4" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="83" t="s">
+      <c r="H3" s="75">
+        <v>430</v>
+      </c>
+      <c r="I3" s="75">
+        <v>450</v>
+      </c>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="77"/>
+    </row>
+    <row r="4" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="81" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="67" t="s">
@@ -2075,13 +2103,21 @@
       <c r="G4" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="79"/>
-    </row>
-    <row r="5" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="83" t="s">
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="77"/>
+    </row>
+    <row r="5" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="81" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="67" t="s">
@@ -2099,13 +2135,21 @@
       <c r="G5" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="79"/>
-    </row>
-    <row r="6" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="83" t="s">
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
+    </row>
+    <row r="6" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="81" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="67" t="s">
@@ -2123,14 +2167,22 @@
       <c r="G6" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="79"/>
-    </row>
-    <row r="7" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="83" t="s">
-        <v>59</v>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="77"/>
+    </row>
+    <row r="7" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="81" t="s">
+        <v>58</v>
       </c>
       <c r="C7" s="67" t="s">
         <v>47</v>
@@ -2147,14 +2199,22 @@
       <c r="G7" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="79"/>
-    </row>
-    <row r="8" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="83" t="s">
-        <v>60</v>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="77"/>
+    </row>
+    <row r="8" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="81" t="s">
+        <v>59</v>
       </c>
       <c r="C8" s="67" t="s">
         <v>47</v>
@@ -2171,14 +2231,22 @@
       <c r="G8" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="79"/>
-    </row>
-    <row r="9" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="83" t="s">
-        <v>61</v>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="77"/>
+    </row>
+    <row r="9" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="81" t="s">
+        <v>60</v>
       </c>
       <c r="C9" s="67" t="s">
         <v>47</v>
@@ -2193,16 +2261,24 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="79"/>
-    </row>
-    <row r="10" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="83" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="77"/>
+    </row>
+    <row r="10" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="81" t="s">
+        <v>61</v>
       </c>
       <c r="C10" s="67" t="s">
         <v>47</v>
@@ -2217,16 +2293,24 @@
         <v>0.5</v>
       </c>
       <c r="G10" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="79"/>
-    </row>
-    <row r="11" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="83" t="s">
-        <v>63</v>
+        <v>55</v>
+      </c>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="77"/>
+    </row>
+    <row r="11" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="81" t="s">
+        <v>62</v>
       </c>
       <c r="C11" s="67" t="s">
         <v>47</v>
@@ -2241,16 +2325,24 @@
         <v>0.5</v>
       </c>
       <c r="G11" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="79"/>
-    </row>
-    <row r="12" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="83" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="77"/>
+    </row>
+    <row r="12" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="81" t="s">
+        <v>63</v>
       </c>
       <c r="C12" s="67" t="s">
         <v>47</v>
@@ -2265,16 +2357,24 @@
         <v>0.5</v>
       </c>
       <c r="G12" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="79"/>
-    </row>
-    <row r="13" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="83" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="77"/>
+    </row>
+    <row r="13" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="81" t="s">
+        <v>64</v>
       </c>
       <c r="C13" s="67" t="s">
         <v>47</v>
@@ -2291,14 +2391,22 @@
       <c r="G13" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="79"/>
-    </row>
-    <row r="14" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="83" t="s">
-        <v>66</v>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="77"/>
+    </row>
+    <row r="14" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="81" t="s">
+        <v>65</v>
       </c>
       <c r="C14" s="67" t="s">
         <v>47</v>
@@ -2315,14 +2423,22 @@
       <c r="G14" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="79"/>
-    </row>
-    <row r="15" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="83" t="s">
-        <v>67</v>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="77"/>
+    </row>
+    <row r="15" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="81" t="s">
+        <v>66</v>
       </c>
       <c r="C15" s="67" t="s">
         <v>47</v>
@@ -2339,14 +2455,22 @@
       <c r="G15" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="79"/>
-    </row>
-    <row r="16" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="83" t="s">
-        <v>68</v>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="77"/>
+    </row>
+    <row r="16" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B16" s="81" t="s">
+        <v>67</v>
       </c>
       <c r="C16" s="67" t="s">
         <v>47</v>
@@ -2363,14 +2487,22 @@
       <c r="G16" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="79"/>
-    </row>
-    <row r="17" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="83" t="s">
-        <v>69</v>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="77"/>
+    </row>
+    <row r="17" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="81" t="s">
+        <v>68</v>
       </c>
       <c r="C17" s="67" t="s">
         <v>47</v>
@@ -2387,14 +2519,22 @@
       <c r="G17" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="79"/>
-    </row>
-    <row r="18" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="83" t="s">
-        <v>70</v>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="77"/>
+    </row>
+    <row r="18" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="81" t="s">
+        <v>69</v>
       </c>
       <c r="C18" s="67" t="s">
         <v>47</v>
@@ -2411,14 +2551,22 @@
       <c r="G18" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="79"/>
-    </row>
-    <row r="19" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="83" t="s">
-        <v>71</v>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="77"/>
+    </row>
+    <row r="19" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B19" s="81" t="s">
+        <v>70</v>
       </c>
       <c r="C19" s="67" t="s">
         <v>47</v>
@@ -2433,16 +2581,24 @@
         <v>0.5</v>
       </c>
       <c r="G19" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="79"/>
-    </row>
-    <row r="20" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="83" t="s">
-        <v>72</v>
+        <v>55</v>
+      </c>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="77"/>
+    </row>
+    <row r="20" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="81" t="s">
+        <v>71</v>
       </c>
       <c r="C20" s="67" t="s">
         <v>47</v>
@@ -2457,16 +2613,24 @@
         <v>0.5</v>
       </c>
       <c r="G20" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="79"/>
-    </row>
-    <row r="21" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="83" t="s">
-        <v>73</v>
+        <v>55</v>
+      </c>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="77"/>
+    </row>
+    <row r="21" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B21" s="81" t="s">
+        <v>72</v>
       </c>
       <c r="C21" s="67" t="s">
         <v>47</v>
@@ -2481,16 +2645,24 @@
         <v>0.5</v>
       </c>
       <c r="G21" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="79"/>
-    </row>
-    <row r="22" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="84" t="s">
-        <v>74</v>
+        <v>56</v>
+      </c>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="77"/>
+    </row>
+    <row r="22" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="82" t="s">
+        <v>73</v>
       </c>
       <c r="C22" s="71" t="s">
         <v>47</v>
@@ -2505,29 +2677,43 @@
         <v>0.5</v>
       </c>
       <c r="G22" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="81"/>
-    </row>
-    <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:11" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="B26" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="87"/>
-    </row>
-    <row r="27" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B27" s="82"/>
+        <v>57</v>
+      </c>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="79"/>
+    </row>
+    <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:19" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="B26" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="91"/>
+    </row>
+    <row r="27" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="80"/>
       <c r="C27" s="65" t="s">
         <v>42</v>
       </c>
@@ -2543,280 +2729,413 @@
       <c r="G27" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="H27" s="75" t="s">
+      <c r="H27" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="75" t="s">
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="76" t="s">
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="83" t="s">
+      <c r="O27" s="92"/>
+      <c r="P27" s="93"/>
+    </row>
+    <row r="28" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="91"/>
-    </row>
-    <row r="29" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="83" t="s">
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="86"/>
+    </row>
+    <row r="29" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="91"/>
-    </row>
-    <row r="30" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="83" t="s">
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="86"/>
+    </row>
+    <row r="30" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="91"/>
-    </row>
-    <row r="31" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="83" t="s">
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="86"/>
+    </row>
+    <row r="31" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="91"/>
-    </row>
-    <row r="32" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="83" t="s">
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="85"/>
+      <c r="O31" s="85"/>
+      <c r="P31" s="86"/>
+    </row>
+    <row r="32" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="86"/>
+    </row>
+    <row r="33" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="91"/>
-    </row>
-    <row r="33" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="83" t="s">
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="85"/>
+      <c r="O33" s="85"/>
+      <c r="P33" s="86"/>
+    </row>
+    <row r="34" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="91"/>
-    </row>
-    <row r="34" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="83" t="s">
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="85"/>
+      <c r="O34" s="85"/>
+      <c r="P34" s="86"/>
+    </row>
+    <row r="35" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="91"/>
-    </row>
-    <row r="35" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="83" t="s">
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="86"/>
+    </row>
+    <row r="36" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="91"/>
-    </row>
-    <row r="36" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="83" t="s">
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="86"/>
+    </row>
+    <row r="37" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="91"/>
-    </row>
-    <row r="37" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="83" t="s">
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="85"/>
+      <c r="O37" s="85"/>
+      <c r="P37" s="86"/>
+    </row>
+    <row r="38" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="91"/>
-    </row>
-    <row r="38" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="83" t="s">
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="85"/>
+      <c r="P38" s="86"/>
+    </row>
+    <row r="39" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="91"/>
-    </row>
-    <row r="39" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="83" t="s">
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="85"/>
+      <c r="O39" s="85"/>
+      <c r="P39" s="86"/>
+    </row>
+    <row r="40" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="91"/>
-    </row>
-    <row r="40" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="83" t="s">
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="85"/>
+      <c r="O40" s="85"/>
+      <c r="P40" s="86"/>
+    </row>
+    <row r="41" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="91"/>
-    </row>
-    <row r="41" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="83" t="s">
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="85"/>
+      <c r="O41" s="85"/>
+      <c r="P41" s="86"/>
+    </row>
+    <row r="42" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="91"/>
-    </row>
-    <row r="42" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="83" t="s">
+      <c r="C42" s="83"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="85"/>
+      <c r="P42" s="86"/>
+    </row>
+    <row r="43" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="91"/>
-    </row>
-    <row r="43" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="83" t="s">
+      <c r="C43" s="83"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="85"/>
+      <c r="N43" s="85"/>
+      <c r="O43" s="85"/>
+      <c r="P43" s="86"/>
+    </row>
+    <row r="44" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="91"/>
-    </row>
-    <row r="44" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="83" t="s">
+      <c r="C44" s="83"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="85"/>
+      <c r="O44" s="85"/>
+      <c r="P44" s="86"/>
+    </row>
+    <row r="45" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="91"/>
-    </row>
-    <row r="45" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="83" t="s">
+      <c r="C45" s="83"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="85"/>
+      <c r="M45" s="85"/>
+      <c r="N45" s="85"/>
+      <c r="O45" s="85"/>
+      <c r="P45" s="86"/>
+    </row>
+    <row r="46" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="91"/>
-    </row>
-    <row r="46" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="83" t="s">
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="85"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="85"/>
+      <c r="O46" s="85"/>
+      <c r="P46" s="86"/>
+    </row>
+    <row r="47" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="90"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="91"/>
-    </row>
-    <row r="47" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="93"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="87"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="87"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="87"/>
+      <c r="P47" s="88"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B26:J26"/>
+  <mergeCells count="9">
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="B26:P26"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
